--- a/IPC2024_base2010/sinrecodificar_6_2024.xlsx
+++ b/IPC2024_base2010/sinrecodificar_6_2024.xlsx
@@ -67,12 +67,12 @@
     <t>1199022</t>
   </si>
   <si>
+    <t>13120081</t>
+  </si>
+  <si>
     <t>1199032</t>
   </si>
   <si>
-    <t>13120081</t>
-  </si>
-  <si>
     <t>1165011</t>
   </si>
   <si>
@@ -88,24 +88,24 @@
     <t>1183011</t>
   </si>
   <si>
+    <t>9740061</t>
+  </si>
+  <si>
     <t>5619021</t>
   </si>
   <si>
-    <t>9740061</t>
-  </si>
-  <si>
     <t>1145031</t>
   </si>
   <si>
     <t>1199023</t>
   </si>
   <si>
+    <t>5619041</t>
+  </si>
+  <si>
     <t>9740011</t>
   </si>
   <si>
-    <t>5619041</t>
-  </si>
-  <si>
     <t>1193033</t>
   </si>
   <si>
@@ -139,21 +139,24 @@
     <t>9740051</t>
   </si>
   <si>
+    <t>5611082</t>
+  </si>
+  <si>
+    <t>1124023</t>
+  </si>
+  <si>
     <t>4311061</t>
   </si>
   <si>
-    <t>1124023</t>
-  </si>
-  <si>
-    <t>5611082</t>
+    <t>11112074</t>
+  </si>
+  <si>
+    <t>1124024</t>
   </si>
   <si>
     <t>1124022</t>
   </si>
   <si>
-    <t>1124024</t>
-  </si>
-  <si>
     <t>4542021</t>
   </si>
   <si>
@@ -163,16 +166,16 @@
     <t>9740062</t>
   </si>
   <si>
-    <t>11112074</t>
+    <t>11112091</t>
+  </si>
+  <si>
+    <t>1113055</t>
   </si>
   <si>
     <t>4311031</t>
   </si>
   <si>
-    <t>1113055</t>
-  </si>
-  <si>
-    <t>11112091</t>
+    <t>11112101</t>
   </si>
   <si>
     <t>1164011</t>
@@ -187,13 +190,13 @@
     <t>9740042</t>
   </si>
   <si>
+    <t>1125022</t>
+  </si>
+  <si>
     <t>13120091</t>
   </si>
   <si>
-    <t>1125022</t>
-  </si>
-  <si>
-    <t>11112101</t>
+    <t>13131051</t>
   </si>
   <si>
     <t>1125051</t>
@@ -202,9 +205,6 @@
     <t>11112051</t>
   </si>
   <si>
-    <t>13131051</t>
-  </si>
-  <si>
     <t>1125052</t>
   </si>
   <si>
@@ -220,133 +220,142 @@
     <t>5213021</t>
   </si>
   <si>
+    <t>1125062</t>
+  </si>
+  <si>
+    <t>1163021</t>
+  </si>
+  <si>
+    <t>1114015</t>
+  </si>
+  <si>
     <t>5213022</t>
   </si>
   <si>
     <t>11112043</t>
   </si>
   <si>
-    <t>1163021</t>
-  </si>
-  <si>
     <t>8192011</t>
   </si>
   <si>
-    <t>1125062</t>
-  </si>
-  <si>
-    <t>1114015</t>
+    <t>6123022</t>
   </si>
   <si>
     <t>1122024</t>
   </si>
   <si>
-    <t>6123022</t>
-  </si>
-  <si>
     <t>1113053</t>
   </si>
   <si>
+    <t>11112013</t>
+  </si>
+  <si>
     <t>1132011</t>
   </si>
   <si>
-    <t>11112013</t>
-  </si>
-  <si>
     <t>6123021</t>
   </si>
   <si>
     <t>13120133</t>
   </si>
   <si>
+    <t>1125042</t>
+  </si>
+  <si>
+    <t>11112052</t>
+  </si>
+  <si>
+    <t>1145032</t>
+  </si>
+  <si>
+    <t>3131021</t>
+  </si>
+  <si>
     <t>8192012</t>
   </si>
   <si>
-    <t>1125042</t>
+    <t>1199042</t>
+  </si>
+  <si>
+    <t>6111212</t>
+  </si>
+  <si>
+    <t>11112054</t>
+  </si>
+  <si>
+    <t>4311091</t>
+  </si>
+  <si>
+    <t>6111111</t>
   </si>
   <si>
     <t>5619081</t>
   </si>
   <si>
-    <t>1145032</t>
-  </si>
-  <si>
-    <t>3131021</t>
-  </si>
-  <si>
-    <t>6111111</t>
-  </si>
-  <si>
-    <t>6111212</t>
-  </si>
-  <si>
-    <t>1199042</t>
-  </si>
-  <si>
-    <t>11112054</t>
-  </si>
-  <si>
-    <t>4311091</t>
+    <t>6111112</t>
   </si>
   <si>
     <t>4311052</t>
   </si>
   <si>
-    <t>6111112</t>
-  </si>
-  <si>
-    <t>11112052</t>
-  </si>
-  <si>
     <t>11112022</t>
   </si>
   <si>
     <t>4311051</t>
   </si>
   <si>
+    <t>13120131</t>
+  </si>
+  <si>
+    <t>13120082</t>
+  </si>
+  <si>
     <t>5114011</t>
   </si>
   <si>
-    <t>13120082</t>
-  </si>
-  <si>
-    <t>13120131</t>
-  </si>
-  <si>
     <t>4311081</t>
   </si>
   <si>
+    <t>9740014</t>
+  </si>
+  <si>
+    <t>11112033</t>
+  </si>
+  <si>
+    <t>3132011</t>
+  </si>
+  <si>
     <t>1199041</t>
   </si>
   <si>
-    <t>9740014</t>
-  </si>
-  <si>
-    <t>11112033</t>
-  </si>
-  <si>
     <t>6133011</t>
   </si>
   <si>
-    <t>3132011</t>
+    <t>5211012</t>
+  </si>
+  <si>
+    <t>1113052</t>
   </si>
   <si>
     <t>6111151</t>
   </si>
   <si>
-    <t>1113052</t>
-  </si>
-  <si>
     <t>13120104</t>
   </si>
   <si>
     <t>1165012</t>
   </si>
   <si>
+    <t>11112084</t>
+  </si>
+  <si>
+    <t>6111113</t>
+  </si>
+  <si>
     <t>6111161</t>
   </si>
   <si>
-    <t>5211012</t>
+    <t>6111152</t>
   </si>
   <si>
     <t>9719023</t>
@@ -358,39 +367,33 @@
     <t>13291021</t>
   </si>
   <si>
-    <t>6111113</t>
-  </si>
-  <si>
-    <t>6111152</t>
-  </si>
-  <si>
-    <t>11112084</t>
+    <t>6123023</t>
+  </si>
+  <si>
+    <t>13120132</t>
+  </si>
+  <si>
+    <t>3212012</t>
   </si>
   <si>
     <t>3121014</t>
   </si>
   <si>
-    <t>13120132</t>
-  </si>
-  <si>
-    <t>6123023</t>
-  </si>
-  <si>
-    <t>3212012</t>
+    <t>3211042</t>
+  </si>
+  <si>
+    <t>3213021</t>
+  </si>
+  <si>
+    <t>13111011</t>
+  </si>
+  <si>
+    <t>9312021</t>
   </si>
   <si>
     <t>3121081</t>
   </si>
   <si>
-    <t>9312021</t>
-  </si>
-  <si>
-    <t>13111011</t>
-  </si>
-  <si>
-    <t>3213021</t>
-  </si>
-  <si>
     <t>3121091</t>
   </si>
   <si>
@@ -400,28 +403,31 @@
     <t>3212032</t>
   </si>
   <si>
-    <t>3211042</t>
-  </si>
-  <si>
     <t>3123091</t>
   </si>
   <si>
+    <t>11112053</t>
+  </si>
+  <si>
+    <t>3121011</t>
+  </si>
+  <si>
+    <t>11112014</t>
+  </si>
+  <si>
+    <t>9312022</t>
+  </si>
+  <si>
+    <t>13291011</t>
+  </si>
+  <si>
     <t>6131013</t>
   </si>
   <si>
-    <t>3121011</t>
-  </si>
-  <si>
-    <t>13291011</t>
-  </si>
-  <si>
-    <t>9312022</t>
-  </si>
-  <si>
     <t>3132012</t>
   </si>
   <si>
-    <t>11112014</t>
+    <t>13291012</t>
   </si>
   <si>
     <t>9312023</t>
@@ -430,6 +436,9 @@
     <t>1174032</t>
   </si>
   <si>
+    <t>13211021</t>
+  </si>
+  <si>
     <t>11112071</t>
   </si>
   <si>
@@ -442,16 +451,16 @@
     <t>3212031</t>
   </si>
   <si>
+    <t>3121012</t>
+  </si>
+  <si>
+    <t>11112023</t>
+  </si>
+  <si>
     <t>3121021</t>
   </si>
   <si>
-    <t>3121012</t>
-  </si>
-  <si>
-    <t>13211021</t>
-  </si>
-  <si>
-    <t>11112053</t>
+    <t>3110013</t>
   </si>
   <si>
     <t>4311071</t>
@@ -460,79 +469,91 @@
     <t>6111221</t>
   </si>
   <si>
-    <t>3110013</t>
+    <t>3122061</t>
+  </si>
+  <si>
+    <t>11112064</t>
   </si>
   <si>
     <t>3125031</t>
   </si>
   <si>
+    <t>3110014</t>
+  </si>
+  <si>
     <t>3123071</t>
   </si>
   <si>
-    <t>13291012</t>
+    <t>6111231</t>
   </si>
   <si>
     <t>3212041</t>
   </si>
   <si>
-    <t>6111231</t>
-  </si>
-  <si>
-    <t>3110014</t>
+    <t>13211031</t>
   </si>
   <si>
     <t>3124041</t>
   </si>
   <si>
-    <t>3122061</t>
-  </si>
-  <si>
     <t>63110201</t>
   </si>
   <si>
+    <t>13211032</t>
+  </si>
+  <si>
+    <t>11112111</t>
+  </si>
+  <si>
+    <t>8192013</t>
+  </si>
+  <si>
+    <t>3124051</t>
+  </si>
+  <si>
+    <t>13132012</t>
+  </si>
+  <si>
+    <t>3125012</t>
+  </si>
+  <si>
+    <t>3211032</t>
+  </si>
+  <si>
+    <t>3125011</t>
+  </si>
+  <si>
     <t>3211051</t>
   </si>
   <si>
-    <t>11112111</t>
-  </si>
-  <si>
-    <t>3125012</t>
-  </si>
-  <si>
-    <t>3125011</t>
-  </si>
-  <si>
-    <t>8192013</t>
+    <t>8350013</t>
+  </si>
+  <si>
+    <t>9321012</t>
+  </si>
+  <si>
+    <t>1121011</t>
   </si>
   <si>
     <t>3213032</t>
   </si>
   <si>
-    <t>9321012</t>
-  </si>
-  <si>
-    <t>8350013</t>
-  </si>
-  <si>
-    <t>1121011</t>
-  </si>
-  <si>
-    <t>3211032</t>
-  </si>
-  <si>
-    <t>3124051</t>
-  </si>
-  <si>
-    <t>13211031</t>
-  </si>
-  <si>
-    <t>13132012</t>
+    <t>11112042</t>
+  </si>
+  <si>
+    <t>3122041</t>
   </si>
   <si>
     <t>3211041</t>
   </si>
   <si>
-    <t>11112023</t>
+    <t>3124052</t>
+  </si>
+  <si>
+    <t>11112031</t>
+  </si>
+  <si>
+    <t>3212051</t>
   </si>
   <si>
     <t>3131022</t>
@@ -541,109 +562,91 @@
     <t>13120134</t>
   </si>
   <si>
-    <t>3124052</t>
-  </si>
-  <si>
-    <t>3122041</t>
-  </si>
-  <si>
-    <t>11112042</t>
+    <t>9212032</t>
   </si>
   <si>
     <t>5111044</t>
   </si>
   <si>
+    <t>13211022</t>
+  </si>
+  <si>
     <t>9321013</t>
   </si>
   <si>
-    <t>11112064</t>
-  </si>
-  <si>
-    <t>3212051</t>
-  </si>
-  <si>
-    <t>13211022</t>
-  </si>
-  <si>
-    <t>13211032</t>
-  </si>
-  <si>
     <t>3123081</t>
   </si>
   <si>
     <t>6122012</t>
   </si>
   <si>
+    <t>3211052</t>
+  </si>
+  <si>
+    <t>11112016</t>
+  </si>
+  <si>
     <t>3121102</t>
   </si>
   <si>
+    <t>6123011</t>
+  </si>
+  <si>
     <t>11112015</t>
   </si>
   <si>
-    <t>3211052</t>
+    <t>8350012</t>
   </si>
   <si>
     <t>8131023</t>
   </si>
   <si>
-    <t>6123011</t>
-  </si>
-  <si>
-    <t>8350012</t>
+    <t>1176032</t>
+  </si>
+  <si>
+    <t>9212031</t>
   </si>
   <si>
     <t>6122011</t>
   </si>
   <si>
-    <t>1176032</t>
-  </si>
-  <si>
-    <t>11112016</t>
-  </si>
-  <si>
-    <t>9212032</t>
-  </si>
-  <si>
     <t>3212052</t>
   </si>
   <si>
     <t>13111012</t>
   </si>
   <si>
+    <t>4321011</t>
+  </si>
+  <si>
+    <t>9462021</t>
+  </si>
+  <si>
+    <t>3125021</t>
+  </si>
+  <si>
     <t>6411023</t>
   </si>
   <si>
-    <t>4321011</t>
-  </si>
-  <si>
     <t>3122011</t>
   </si>
   <si>
-    <t>3125021</t>
+    <t>3124011</t>
+  </si>
+  <si>
+    <t>3124022</t>
+  </si>
+  <si>
+    <t>4321012</t>
+  </si>
+  <si>
+    <t>11112062</t>
   </si>
   <si>
     <t>3211031</t>
   </si>
   <si>
-    <t>4321012</t>
-  </si>
-  <si>
-    <t>3124022</t>
-  </si>
-  <si>
-    <t>11112062</t>
-  </si>
-  <si>
-    <t>3124011</t>
-  </si>
-  <si>
-    <t>9462021</t>
-  </si>
-  <si>
-    <t>9212031</t>
-  </si>
-  <si>
-    <t>11112031</t>
+    <t>10509013</t>
   </si>
   <si>
     <t>5311023</t>
@@ -652,30 +655,36 @@
     <t>3125022</t>
   </si>
   <si>
+    <t>10509012</t>
+  </si>
+  <si>
+    <t>5212021</t>
+  </si>
+  <si>
+    <t>8131021</t>
+  </si>
+  <si>
     <t>3124062</t>
   </si>
   <si>
+    <t>13909032</t>
+  </si>
+  <si>
     <t>8350011</t>
   </si>
   <si>
-    <t>10509012</t>
-  </si>
-  <si>
-    <t>8131021</t>
-  </si>
-  <si>
-    <t>5212021</t>
-  </si>
-  <si>
-    <t>13909032</t>
+    <t>10501012</t>
+  </si>
+  <si>
+    <t>7322021</t>
+  </si>
+  <si>
+    <t>3122012</t>
   </si>
   <si>
     <t>7329011</t>
   </si>
   <si>
-    <t>3122012</t>
-  </si>
-  <si>
     <t>6310051</t>
   </si>
   <si>
@@ -688,46 +697,40 @@
     <t>8132011</t>
   </si>
   <si>
-    <t>10509013</t>
-  </si>
-  <si>
-    <t>7322021</t>
+    <t>13291031</t>
+  </si>
+  <si>
+    <t>9321011</t>
   </si>
   <si>
     <t>5212022</t>
   </si>
   <si>
-    <t>9321011</t>
-  </si>
-  <si>
-    <t>13291031</t>
-  </si>
-  <si>
     <t>3122013</t>
   </si>
   <si>
     <t>10509014</t>
   </si>
   <si>
+    <t>1141011</t>
+  </si>
+  <si>
     <t>13909033</t>
   </si>
   <si>
-    <t>10501012</t>
-  </si>
-  <si>
-    <t>1141011</t>
+    <t>10200032</t>
   </si>
   <si>
     <t>8131022</t>
   </si>
   <si>
+    <t>3126017</t>
+  </si>
+  <si>
     <t>3126016</t>
   </si>
   <si>
-    <t>3126017</t>
-  </si>
-  <si>
-    <t>10200032</t>
+    <t>10501011</t>
   </si>
   <si>
     <t>3126011</t>
@@ -736,30 +739,27 @@
     <t>9462023</t>
   </si>
   <si>
-    <t>10501011</t>
+    <t>10200031</t>
   </si>
   <si>
     <t>12299011</t>
   </si>
   <si>
+    <t>8392011</t>
+  </si>
+  <si>
     <t>8392015</t>
   </si>
   <si>
-    <t>8392011</t>
-  </si>
-  <si>
-    <t>10200031</t>
-  </si>
-  <si>
     <t>8392014</t>
   </si>
   <si>
+    <t>8392012</t>
+  </si>
+  <si>
     <t>8392013</t>
   </si>
   <si>
-    <t>8392012</t>
-  </si>
-  <si>
     <t>Apio</t>
   </si>
   <si>
@@ -802,12 +802,12 @@
     <t>Pediasure en polvo</t>
   </si>
   <si>
+    <t>Paquetes de toallas húmedas para bebés de 60 a 80 unidades</t>
+  </si>
+  <si>
     <t>Chicharrones</t>
   </si>
   <si>
-    <t>Paquetes de toallas húmedas para bebés de 60 a 80 unidades</t>
-  </si>
-  <si>
     <t>Uvas rojas frescas</t>
   </si>
   <si>
@@ -823,24 +823,24 @@
     <t>Miel envasada de 340g</t>
   </si>
   <si>
+    <t>Crayones de madera de 12 unidades</t>
+  </si>
+  <si>
     <t>Insecticida en spray</t>
   </si>
   <si>
-    <t>Crayones de madera de 12 unidades</t>
-  </si>
-  <si>
     <t>Queso mozzarella rallado</t>
   </si>
   <si>
     <t>Glucerna en polvo</t>
   </si>
   <si>
+    <t>Papel aluminio</t>
+  </si>
+  <si>
     <t>Borrador blanco sencillo (rectangular)</t>
   </si>
   <si>
-    <t>Papel aluminio</t>
-  </si>
-  <si>
     <t>Sazonadores y ablandadores</t>
   </si>
   <si>
@@ -874,21 +874,24 @@
     <t>Tijera escolar punta redonda (sin punta de 5")</t>
   </si>
   <si>
+    <t>Paquete de 2 o 3 unidades de esponjas para trastes</t>
+  </si>
+  <si>
+    <t>Lengua de res</t>
+  </si>
+  <si>
     <t>Tubo de pvc 1/2"</t>
   </si>
   <si>
-    <t>Lengua de res</t>
-  </si>
-  <si>
-    <t>Paquete de 2 o 3 unidades de esponjas para trastes</t>
+    <t>Porción de helado (2 bolas)</t>
+  </si>
+  <si>
+    <t>Panza de res</t>
   </si>
   <si>
     <t>Patas de res</t>
   </si>
   <si>
-    <t>Panza de res</t>
-  </si>
-  <si>
     <t>Manojo de ocote</t>
   </si>
   <si>
@@ -898,16 +901,16 @@
     <t>Crayones de madera de 24 unidades</t>
   </si>
   <si>
-    <t>Porción de helado (2 bolas)</t>
+    <t>Licuados de frutas servidas en el lugar (con y sin leche)</t>
+  </si>
+  <si>
+    <t>Donas</t>
   </si>
   <si>
     <t>Cal hidratada de 20 kilogramos para usos en acabados y repellos</t>
   </si>
   <si>
-    <t>Donas</t>
-  </si>
-  <si>
-    <t>Licuados de frutas servidas en el lugar (con y sin leche)</t>
+    <t>Atoles</t>
   </si>
   <si>
     <t>Fresas frescas</t>
@@ -922,13 +925,13 @@
     <t>Paquete de 100 hojas bond de cuadrícula o líneas (60 gramos)</t>
   </si>
   <si>
+    <t>Jamón de pollo</t>
+  </si>
+  <si>
     <t>Paquete de hisopos de 50 a 150 unidades</t>
   </si>
   <si>
-    <t>Jamón de pollo</t>
-  </si>
-  <si>
-    <t>Atoles</t>
+    <t>Servicio de depilación de ceja</t>
   </si>
   <si>
     <t>Tortas de carne de res</t>
@@ -937,9 +940,6 @@
     <t>Tacos y gringas (mexicanos)</t>
   </si>
   <si>
-    <t>Servicio de depilación de ceja</t>
-  </si>
-  <si>
     <t>Tortas de carne de pollo</t>
   </si>
   <si>
@@ -955,133 +955,142 @@
     <t>Toallas de baño de tela</t>
   </si>
   <si>
+    <t>Alitas de pollo marinadas (barbacoa, especies, etc.)</t>
+  </si>
+  <si>
+    <t>Duraznos</t>
+  </si>
+  <si>
+    <t>Cereal de Avena</t>
+  </si>
+  <si>
     <t>Toallas de manos y/o rostro de tela</t>
   </si>
   <si>
     <t>Pan con carne (res, pollo y cerdo)</t>
   </si>
   <si>
-    <t>Duraznos</t>
-  </si>
-  <si>
     <t>Cable cargador para teléfono móvil</t>
   </si>
   <si>
-    <t>Alitas de pollo marinadas (barbacoa, especies, etc.)</t>
-  </si>
-  <si>
-    <t>Cereal de Avena</t>
+    <t>Curitas sueltas</t>
   </si>
   <si>
     <t>Carne de cerdo con hueso</t>
   </si>
   <si>
-    <t>Curitas sueltas</t>
-  </si>
-  <si>
     <t>Campechanas y Lenguas</t>
   </si>
   <si>
+    <t>Combo individual de pizza</t>
+  </si>
+  <si>
     <t>Pescado seco (incluye bacalao, bagre, bonito)</t>
   </si>
   <si>
-    <t>Combo individual de pizza</t>
-  </si>
-  <si>
     <t>Paquete de algodón de 100 a 200g</t>
   </si>
   <si>
     <t>Tinte para el cabello</t>
   </si>
   <si>
+    <t>Milanesa de pollo</t>
+  </si>
+  <si>
+    <t>Tortillas de harina con carne (res, pollo, cerdo o mixta)</t>
+  </si>
+  <si>
+    <t>Queso mozzarella no rallado</t>
+  </si>
+  <si>
+    <t>Gorras ajustables</t>
+  </si>
+  <si>
     <t>Cable cargador y cubo para teléfono móvil</t>
   </si>
   <si>
-    <t>Milanesa de pollo</t>
+    <t>Hoja de maíz (tusa)</t>
+  </si>
+  <si>
+    <t>Alcohol medicinal gel</t>
+  </si>
+  <si>
+    <t>Flautas, dobladas y tacos fritos</t>
+  </si>
+  <si>
+    <t>Ventanas de pvc blanco de 1x1m, doble corrediza</t>
+  </si>
+  <si>
+    <t>Pregabalina comprimido 150 mg</t>
   </si>
   <si>
     <t>Lazo trenzado plástico (7 - 15 metros)</t>
   </si>
   <si>
-    <t>Queso mozzarella no rallado</t>
-  </si>
-  <si>
-    <t>Gorras ajustables</t>
-  </si>
-  <si>
-    <t>Pregabalina comprimido 150 mg</t>
-  </si>
-  <si>
-    <t>Alcohol medicinal gel</t>
-  </si>
-  <si>
-    <t>Hoja de maíz (tusa)</t>
-  </si>
-  <si>
-    <t>Flautas, dobladas y tacos fritos</t>
-  </si>
-  <si>
-    <t>Ventanas de pvc blanco de 1x1m, doble corrediza</t>
+    <t>Gabapentina comprimido 300 y 400 mg</t>
   </si>
   <si>
     <t>Piedrín (1/2 cúbico)</t>
   </si>
   <si>
-    <t>Gabapentina comprimido 300 y 400 mg</t>
-  </si>
-  <si>
-    <t>Tortillas de harina con carne (res, pollo, cerdo o mixta)</t>
-  </si>
-  <si>
     <t>Combo de comida rápida familiar de pizza</t>
   </si>
   <si>
     <t>Arena de río (1/2 metro cúbico)</t>
   </si>
   <si>
+    <t>Pestañas postizas</t>
+  </si>
+  <si>
+    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
+  </si>
+  <si>
     <t>Espejo colgante con marco</t>
   </si>
   <si>
-    <t>Pack de 3 a 4 paquetes (de 40 a 80 unidades) de toallas húmedas para bebés</t>
-  </si>
-  <si>
-    <t>Pestañas postizas</t>
-  </si>
-  <si>
     <t>Piso cerámico para interior uso doméstico m²</t>
   </si>
   <si>
+    <t>Estuche de tela para lápices de un compartimiento</t>
+  </si>
+  <si>
+    <t>Platos preparados de comida china</t>
+  </si>
+  <si>
+    <t>Hilo para coser</t>
+  </si>
+  <si>
     <t>Hoja de plátano</t>
   </si>
   <si>
-    <t>Estuche de tela para lápices de un compartimiento</t>
-  </si>
-  <si>
-    <t>Platos preparados de comida china</t>
-  </si>
-  <si>
     <t>Protectores nocturnos y diurnos</t>
   </si>
   <si>
-    <t>Hilo para coser</t>
+    <t>Cortinas de plástico o poliéster</t>
+  </si>
+  <si>
+    <t>Roscas</t>
   </si>
   <si>
     <t>Calcio</t>
   </si>
   <si>
-    <t>Roscas</t>
-  </si>
-  <si>
     <t>Bloqueador de 30 a 50ml, protección solar FPS de 50</t>
   </si>
   <si>
     <t>Uvas verdes frescas</t>
   </si>
   <si>
+    <t>Ensalada de verduras preparadas</t>
+  </si>
+  <si>
+    <t>Clonazepam comprimido de 2mg</t>
+  </si>
+  <si>
     <t>Relajantes musculares en ungüento</t>
   </si>
   <si>
-    <t>Cortinas de plástico o poliéster</t>
+    <t>Colágeno hidrolizado y glucosamina</t>
   </si>
   <si>
     <t>Libros de lectura complementaria</t>
@@ -1093,39 +1102,33 @@
     <t>Ataúd de madera barnizada color natural</t>
   </si>
   <si>
-    <t>Clonazepam comprimido de 2mg</t>
-  </si>
-  <si>
-    <t>Colágeno hidrolizado y glucosamina</t>
-  </si>
-  <si>
-    <t>Ensalada de verduras preparadas</t>
+    <t>Caja de curitas de 20 unidades, plásticas color piel</t>
+  </si>
+  <si>
+    <t>Pegamento para pestañas postizas</t>
+  </si>
+  <si>
+    <t>Zapatos tipo chinita de material distinto a cuero para mujer</t>
   </si>
   <si>
     <t>Chumpa enguatada para hombres (mayores de 12 años)</t>
   </si>
   <si>
-    <t>Pegamento para pestañas postizas</t>
-  </si>
-  <si>
-    <t>Caja de curitas de 20 unidades, plásticas color piel</t>
-  </si>
-  <si>
-    <t>Zapatos tipo chinita de material distinto a cuero para mujer</t>
+    <t>Tenis o zapatillas para hombre</t>
+  </si>
+  <si>
+    <t>Zapatos escolares para niña (menores a 13 años)</t>
+  </si>
+  <si>
+    <t>Afeitadora rotativa de 2 o 3 cabezales</t>
+  </si>
+  <si>
+    <t>Macetas con flores</t>
   </si>
   <si>
     <t>Pantalones largos deportivo para hombres (mayores a 12 años)</t>
   </si>
   <si>
-    <t>Macetas con flores</t>
-  </si>
-  <si>
-    <t>Afeitadora rotativa de 2 o 3 cabezales</t>
-  </si>
-  <si>
-    <t>Zapatos escolares para niña (menores a 13 años)</t>
-  </si>
-  <si>
     <t>Pantalonetas deportivas para hombres (mayores de 12 años)</t>
   </si>
   <si>
@@ -1135,28 +1138,31 @@
     <t>Sandalias con tacón o plataforma para mujer</t>
   </si>
   <si>
-    <t>Tenis o zapatillas para hombre</t>
-  </si>
-  <si>
     <t>Traje tradicional para mujeres (mayores de 12 años), incluye güipil y corte</t>
   </si>
   <si>
+    <t>Tortillas con carne o mixtas y shukos</t>
+  </si>
+  <si>
+    <t>Chumpa de cuero o cuerina para hombres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Combo individual de comida china</t>
+  </si>
+  <si>
+    <t>Macetas con suculentas</t>
+  </si>
+  <si>
+    <t>Sombrilla/paraguas plegable</t>
+  </si>
+  <si>
     <t>Lentes de contacto</t>
   </si>
   <si>
-    <t>Chumpa de cuero o cuerina para hombres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Sombrilla/paraguas plegable</t>
-  </si>
-  <si>
-    <t>Macetas con suculentas</t>
-  </si>
-  <si>
     <t>Hilo para bordar</t>
   </si>
   <si>
-    <t>Combo individual de comida china</t>
+    <t>Sombrilla/paraguas tipo bastón</t>
   </si>
   <si>
     <t>Macetas con hierbas de cocina</t>
@@ -1165,6 +1171,9 @@
     <t>Cebollas amarillas</t>
   </si>
   <si>
+    <t>Cadena para dijes de plata (40 a 50cm)</t>
+  </si>
+  <si>
     <t>Ensalada de frutas preparadas</t>
   </si>
   <si>
@@ -1177,16 +1186,16 @@
     <t>Sandalias sin tacón para mujer</t>
   </si>
   <si>
+    <t>Chumpa impermeable para hombres (mayores de 12 años)</t>
+  </si>
+  <si>
+    <t>Combo de comida rápida familiar de comida china</t>
+  </si>
+  <si>
     <t>Suéteres de algodón cerrados o abiertos para hombres (mayores de 12 años)</t>
   </si>
   <si>
-    <t>Chumpa impermeable para hombres (mayores de 12 años)</t>
-  </si>
-  <si>
-    <t>Cadena para dijes de plata (40 a 50cm)</t>
-  </si>
-  <si>
-    <t>Tortillas con carne o mixtas y shukos</t>
+    <t>Telas para faldas</t>
   </si>
   <si>
     <t>Tablas de madera</t>
@@ -1195,79 +1204,91 @@
     <t>Mercuriocromo líquido al 2% (1 onz fl o 30ml)</t>
   </si>
   <si>
-    <t>Telas para faldas</t>
+    <t>Trajes formales para niños (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Pupusas y Tayuyos</t>
   </si>
   <si>
     <t>Pantalones para bebés (menores de 2 años)</t>
   </si>
   <si>
+    <t>Telas tradicionales</t>
+  </si>
+  <si>
     <t>Vestidos de fiesta o gala largos para mujeres (mayores de 12 años)</t>
   </si>
   <si>
-    <t>Sombrilla/paraguas tipo bastón</t>
+    <t>Mertiolate o metafe líquido (1 onz fl o 30 ml)</t>
   </si>
   <si>
     <t>Botas altas para mujer</t>
   </si>
   <si>
-    <t>Mertiolate o metafe líquido (1 onz fl o 30 ml)</t>
-  </si>
-  <si>
-    <t>Telas tradicionales</t>
+    <t>Aretes de bebé</t>
   </si>
   <si>
     <t>Traje tradicional para niñas (mayores de 2 y menores de 12 años), incluye güipil y corte</t>
   </si>
   <si>
-    <t>Trajes formales para niños (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
     <t>Hospitalización sin cirugía</t>
   </si>
   <si>
+    <t>Argollas clásicas</t>
+  </si>
+  <si>
+    <t>Paquetes de cumpleaños</t>
+  </si>
+  <si>
+    <t>Pad para cargar el teléfono móvil</t>
+  </si>
+  <si>
+    <t>Güipil para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Servicio de pedicura</t>
+  </si>
+  <si>
+    <t>Blusas para bebés (menores de 2 años)</t>
+  </si>
+  <si>
+    <t>Botas acordonadas para hombre</t>
+  </si>
+  <si>
+    <t>Camisas para bebés (menores de 2 años)</t>
+  </si>
+  <si>
     <t>Sandalias para hombre</t>
   </si>
   <si>
-    <t>Paquetes de cumpleaños</t>
-  </si>
-  <si>
-    <t>Blusas para bebés (menores de 2 años)</t>
-  </si>
-  <si>
-    <t>Camisas para bebés (menores de 2 años)</t>
-  </si>
-  <si>
-    <t>Pad para cargar el teléfono móvil</t>
+    <t>Remplazo de pantalla de celular Samsung Galaxy</t>
+  </si>
+  <si>
+    <t>Compra de aves</t>
+  </si>
+  <si>
+    <t>Pollos, gallinas y gallos vivos</t>
   </si>
   <si>
     <t>Tenis (Zapatillas) para niño (menores a 13 años)</t>
   </si>
   <si>
-    <t>Compra de aves</t>
-  </si>
-  <si>
-    <t>Remplazo de pantalla de celular Samsung Galaxy</t>
-  </si>
-  <si>
-    <t>Pollos, gallinas y gallos vivos</t>
-  </si>
-  <si>
-    <t>Botas acordonadas para hombre</t>
-  </si>
-  <si>
-    <t>Güipil para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Aretes de bebé</t>
-  </si>
-  <si>
-    <t>Servicio de pedicura</t>
+    <t>Hot dogs y chéveres</t>
+  </si>
+  <si>
+    <t>Pantalones de vestir para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
     <t>Tenis o zapatillas de material textil para hombre</t>
   </si>
   <si>
-    <t>Combo de comida rápida familiar de comida china</t>
+    <t>Corte para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Platos preparados típicos</t>
+  </si>
+  <si>
+    <t>Chanclas para mujer</t>
   </si>
   <si>
     <t>Gorras no ajustables</t>
@@ -1276,109 +1297,91 @@
     <t>Esmalte para uñas</t>
   </si>
   <si>
-    <t>Corte para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Pantalones de vestir para niños (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Hot dogs y chéveres</t>
+    <t>Triciclo con o sin pedales</t>
   </si>
   <si>
     <t>Colchón de resorte matrimonial</t>
   </si>
   <si>
+    <t>Cadena para dijes de oro (40 a 50cm)</t>
+  </si>
+  <si>
     <t>Compra de peces</t>
   </si>
   <si>
-    <t>Pupusas y Tayuyos</t>
-  </si>
-  <si>
-    <t>Chanclas para mujer</t>
-  </si>
-  <si>
-    <t>Cadena para dijes de oro (40 a 50cm)</t>
-  </si>
-  <si>
-    <t>Argollas clásicas</t>
-  </si>
-  <si>
     <t>Faldas formales de tela a media rodilla para mujeres (mayores de 12 años)</t>
   </si>
   <si>
     <t>Medias de compresión 20/30</t>
   </si>
   <si>
+    <t>Chanclas para hombre</t>
+  </si>
+  <si>
+    <t>Combo individual de Hot dog (incluye gaseosa, fresco o café)</t>
+  </si>
+  <si>
     <t>Sacos formales y casuales para hombres (mayores de 12 años)</t>
   </si>
   <si>
+    <t>Plantillas ortopédicas</t>
+  </si>
+  <si>
     <t>Combo individual de comida mexicana</t>
   </si>
   <si>
-    <t>Chanclas para hombre</t>
+    <t>Remplazo de batería de celular</t>
   </si>
   <si>
     <t>Tablet de 8" a 11", 32 GB - 64GB, Wifi</t>
   </si>
   <si>
-    <t>Plantillas ortopédicas</t>
-  </si>
-  <si>
-    <t>Remplazo de batería de celular</t>
+    <t>Frijoles piloy secos</t>
+  </si>
+  <si>
+    <t>Carrito montable sin pedales</t>
   </si>
   <si>
     <t>Medias de compresión 15/20</t>
   </si>
   <si>
-    <t>Frijoles piloy secos</t>
-  </si>
-  <si>
-    <t>Combo individual de Hot dog (incluye gaseosa, fresco o café)</t>
-  </si>
-  <si>
-    <t>Triciclo con o sin pedales</t>
-  </si>
-  <si>
     <t>Caites para mujer</t>
   </si>
   <si>
     <t>Cortadora de cabello</t>
   </si>
   <si>
+    <t>Servicio de plomería</t>
+  </si>
+  <si>
+    <t>Clases de futbol para niños entre 4 y 17 años</t>
+  </si>
+  <si>
+    <t>Suéteres con capucha para bebés (menores de 2 años)</t>
+  </si>
+  <si>
     <t>Examen de Covid</t>
   </si>
   <si>
-    <t>Servicio de plomería</t>
-  </si>
-  <si>
     <t>Chumpas y chaquetas deportivas de algodón para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
-    <t>Suéteres con capucha para bebés (menores de 2 años)</t>
+    <t>Suéteres de botones abiertos para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Blusas con botones para niñas (mayores de 2 y menores de 12 años)</t>
+  </si>
+  <si>
+    <t>Servicio de electricista</t>
+  </si>
+  <si>
+    <t>Tamalitos sin carne (tamalito de chipilín, loroco, chepes, etc.)</t>
   </si>
   <si>
     <t>Botas vaqueras para hombre</t>
   </si>
   <si>
-    <t>Servicio de electricista</t>
-  </si>
-  <si>
-    <t>Blusas con botones para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Tamalitos sin carne (tamalito de chipilín, loroco, chepes, etc.)</t>
-  </si>
-  <si>
-    <t>Suéteres de botones abiertos para niñas (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
-    <t>Clases de futbol para niños entre 4 y 17 años</t>
-  </si>
-  <si>
-    <t>Carrito montable sin pedales</t>
-  </si>
-  <si>
-    <t>Platos preparados típicos</t>
+    <t>Cursos de corte y confección</t>
   </si>
   <si>
     <t>Estufa de leña</t>
@@ -1387,30 +1390,36 @@
     <t>Suéteres sin capucha para bebés (menores de 2 años)</t>
   </si>
   <si>
+    <t>Cursos de estilista</t>
+  </si>
+  <si>
+    <t>Hamacas de tela</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Tab S9 Wifi, 128 GB, 11"</t>
+  </si>
+  <si>
     <t>Vestidos de tirantes para niñas (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
+    <t>Determinación de edad (Certificado de nacimiento)</t>
+  </si>
+  <si>
     <t>Cambio de batería de laptop</t>
   </si>
   <si>
-    <t>Cursos de estilista</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Tab S9 Wifi, 128 GB, 11"</t>
-  </si>
-  <si>
-    <t>Hamacas de tela</t>
-  </si>
-  <si>
-    <t>Determinación de edad (Certificado de nacimiento)</t>
+    <t>Centros de tutorías (por materia u hora)</t>
+  </si>
+  <si>
+    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+  </si>
+  <si>
+    <t>Chumpas y chaquetas impermeables y enguatadas para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
     <t>Moto taxi</t>
   </si>
   <si>
-    <t>Chumpas y chaquetas impermeables y enguatadas para niños (mayores de 2 y menores de 12 años)</t>
-  </si>
-  <si>
     <t>Hospitalización por covid</t>
   </si>
   <si>
@@ -1423,46 +1432,40 @@
     <t>Impresora HP 3775 Multifuncional DeskJet Ink Advantage</t>
   </si>
   <si>
-    <t>Cursos de corte y confección</t>
-  </si>
-  <si>
-    <t>Alquiler de vehículo por día, kilometraje ilimitado</t>
+    <t>Arriendo de nicho por año</t>
+  </si>
+  <si>
+    <t>Compra de perritos (chihuahua)</t>
   </si>
   <si>
     <t>Hamacas de lazo o pita</t>
   </si>
   <si>
-    <t>Compra de perritos (chihuahua)</t>
-  </si>
-  <si>
-    <t>Arriendo de nicho por año</t>
-  </si>
-  <si>
     <t>Chumpas y chaquetas de cuero y cuerina para niños (mayores de 2 y menores de 12 años)</t>
   </si>
   <si>
     <t>Cursos de enfermería</t>
   </si>
   <si>
+    <t>Leche cruda y fresca de vaca</t>
+  </si>
+  <si>
     <t>Trámite de primer DPI</t>
   </si>
   <si>
-    <t>Centros de tutorías (por materia u hora)</t>
-  </si>
-  <si>
-    <t>Leche cruda y fresca de vaca</t>
+    <t>Cuota mensual para educación por cooperativa</t>
   </si>
   <si>
     <t>Apple iPad 9na Gen, 10.2", 256GB, Wi-Fi</t>
   </si>
   <si>
+    <t>Chumpas para educación física</t>
+  </si>
+  <si>
     <t>Pants para educación física</t>
   </si>
   <si>
-    <t>Chumpas para educación física</t>
-  </si>
-  <si>
-    <t>Cuota mensual para educación por cooperativa</t>
+    <t>Tutorías independientes (por materia u hora)</t>
   </si>
   <si>
     <t>Chumpas o suéter escolares en general</t>
@@ -1471,28 +1474,25 @@
     <t>Clases de karate para niños entre 4 y 17 años</t>
   </si>
   <si>
-    <t>Tutorías independientes (por materia u hora)</t>
+    <t>Inscripción por educación por cooperativa</t>
   </si>
   <si>
     <t>Pago por transferencia de dinero en el extranjero</t>
   </si>
   <si>
+    <t>Spotify</t>
+  </si>
+  <si>
     <t>HBO</t>
   </si>
   <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>Inscripción por educación por cooperativa</t>
-  </si>
-  <si>
     <t>Disney+</t>
   </si>
   <si>
+    <t>Deezer</t>
+  </si>
+  <si>
     <t>Netflix</t>
-  </si>
-  <si>
-    <t>Deezer</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +1948,7 @@
         <v>253</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2004,7 +2004,7 @@
         <v>257</v>
       </c>
       <c r="D11">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2046,7 +2046,7 @@
         <v>260</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2060,12 +2060,12 @@
         <v>261</v>
       </c>
       <c r="D15">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2074,12 +2074,12 @@
         <v>262</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2130,7 +2130,7 @@
         <v>266</v>
       </c>
       <c r="D20">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2158,12 +2158,12 @@
         <v>268</v>
       </c>
       <c r="D22">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2200,7 +2200,7 @@
         <v>271</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2214,12 +2214,12 @@
         <v>272</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>233</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -2228,12 +2228,12 @@
         <v>273</v>
       </c>
       <c r="D27">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2312,7 +2312,7 @@
         <v>279</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2401,7 +2401,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -2480,12 +2480,12 @@
         <v>291</v>
       </c>
       <c r="D45">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -2508,12 +2508,12 @@
         <v>293</v>
       </c>
       <c r="D47">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -2522,12 +2522,12 @@
         <v>294</v>
       </c>
       <c r="D48">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2536,7 +2536,7 @@
         <v>295</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2550,12 +2550,12 @@
         <v>296</v>
       </c>
       <c r="D50">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -2564,12 +2564,12 @@
         <v>297</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -2592,12 +2592,12 @@
         <v>299</v>
       </c>
       <c r="D53">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -2606,12 +2606,12 @@
         <v>300</v>
       </c>
       <c r="D54">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>239</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -2620,12 +2620,12 @@
         <v>301</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -2648,12 +2648,12 @@
         <v>303</v>
       </c>
       <c r="D57">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2662,12 +2662,12 @@
         <v>304</v>
       </c>
       <c r="D58">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2676,12 +2676,12 @@
         <v>305</v>
       </c>
       <c r="D59">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -2690,12 +2690,12 @@
         <v>306</v>
       </c>
       <c r="D60">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -2704,7 +2704,7 @@
         <v>307</v>
       </c>
       <c r="D61">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2718,7 +2718,7 @@
         <v>308</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2779,7 +2779,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -2830,12 +2830,12 @@
         <v>316</v>
       </c>
       <c r="D70">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -2844,12 +2844,12 @@
         <v>317</v>
       </c>
       <c r="D71">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -2928,7 +2928,7 @@
         <v>323</v>
       </c>
       <c r="D77">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2961,7 +2961,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2970,12 +2970,12 @@
         <v>326</v>
       </c>
       <c r="D80">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2984,12 +2984,12 @@
         <v>327</v>
       </c>
       <c r="D81">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -2998,12 +2998,12 @@
         <v>328</v>
       </c>
       <c r="D82">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -3012,12 +3012,12 @@
         <v>329</v>
       </c>
       <c r="D83">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -3026,12 +3026,12 @@
         <v>330</v>
       </c>
       <c r="D84">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -3110,7 +3110,7 @@
         <v>336</v>
       </c>
       <c r="D90">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3129,7 +3129,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -3138,7 +3138,7 @@
         <v>338</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3152,7 +3152,7 @@
         <v>339</v>
       </c>
       <c r="D93">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3171,7 +3171,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -3278,12 +3278,12 @@
         <v>348</v>
       </c>
       <c r="D102">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -3348,12 +3348,12 @@
         <v>353</v>
       </c>
       <c r="D107">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -3381,7 +3381,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -3390,12 +3390,12 @@
         <v>356</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -3404,12 +3404,12 @@
         <v>357</v>
       </c>
       <c r="D111">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -3418,12 +3418,12 @@
         <v>358</v>
       </c>
       <c r="D112">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -3460,12 +3460,12 @@
         <v>361</v>
       </c>
       <c r="D115">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -3474,7 +3474,7 @@
         <v>362</v>
       </c>
       <c r="D116">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3493,7 +3493,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -3600,12 +3600,12 @@
         <v>371</v>
       </c>
       <c r="D125">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -3656,7 +3656,7 @@
         <v>375</v>
       </c>
       <c r="D129">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3675,7 +3675,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -3726,12 +3726,12 @@
         <v>380</v>
       </c>
       <c r="D134">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -3740,12 +3740,12 @@
         <v>381</v>
       </c>
       <c r="D135">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -3768,12 +3768,12 @@
         <v>383</v>
       </c>
       <c r="D137">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3782,12 +3782,12 @@
         <v>384</v>
       </c>
       <c r="D138">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3796,12 +3796,12 @@
         <v>385</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -3810,12 +3810,12 @@
         <v>386</v>
       </c>
       <c r="D140">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3852,12 +3852,12 @@
         <v>389</v>
       </c>
       <c r="D143">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3866,12 +3866,12 @@
         <v>390</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3880,12 +3880,12 @@
         <v>391</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3894,7 +3894,7 @@
         <v>392</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3913,7 +3913,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3936,12 +3936,12 @@
         <v>395</v>
       </c>
       <c r="D149">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3950,12 +3950,12 @@
         <v>396</v>
       </c>
       <c r="D150">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3964,12 +3964,12 @@
         <v>397</v>
       </c>
       <c r="D151">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3978,7 +3978,7 @@
         <v>398</v>
       </c>
       <c r="D152">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4034,12 +4034,12 @@
         <v>402</v>
       </c>
       <c r="D156">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4048,12 +4048,12 @@
         <v>403</v>
       </c>
       <c r="D157">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4062,12 +4062,12 @@
         <v>404</v>
       </c>
       <c r="D158">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4076,12 +4076,12 @@
         <v>405</v>
       </c>
       <c r="D159">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -4090,12 +4090,12 @@
         <v>406</v>
       </c>
       <c r="D160">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4104,12 +4104,12 @@
         <v>407</v>
       </c>
       <c r="D161">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4118,12 +4118,12 @@
         <v>408</v>
       </c>
       <c r="D162">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4132,12 +4132,12 @@
         <v>409</v>
       </c>
       <c r="D163">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4146,12 +4146,12 @@
         <v>410</v>
       </c>
       <c r="D164">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4160,7 +4160,7 @@
         <v>411</v>
       </c>
       <c r="D165">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4174,12 +4174,12 @@
         <v>412</v>
       </c>
       <c r="D166">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4188,12 +4188,12 @@
         <v>413</v>
       </c>
       <c r="D167">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4202,12 +4202,12 @@
         <v>414</v>
       </c>
       <c r="D168">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4216,12 +4216,12 @@
         <v>415</v>
       </c>
       <c r="D169">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4230,12 +4230,12 @@
         <v>416</v>
       </c>
       <c r="D170">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4244,12 +4244,12 @@
         <v>417</v>
       </c>
       <c r="D171">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4258,12 +4258,12 @@
         <v>418</v>
       </c>
       <c r="D172">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4272,12 +4272,12 @@
         <v>419</v>
       </c>
       <c r="D173">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4286,12 +4286,12 @@
         <v>420</v>
       </c>
       <c r="D174">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4300,12 +4300,12 @@
         <v>421</v>
       </c>
       <c r="D175">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4314,12 +4314,12 @@
         <v>422</v>
       </c>
       <c r="D176">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="1">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="1">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4342,12 +4342,12 @@
         <v>424</v>
       </c>
       <c r="D178">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="1">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4356,12 +4356,12 @@
         <v>425</v>
       </c>
       <c r="D179">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="1">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4370,12 +4370,12 @@
         <v>426</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4384,12 +4384,12 @@
         <v>427</v>
       </c>
       <c r="D181">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4398,12 +4398,12 @@
         <v>428</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4412,12 +4412,12 @@
         <v>429</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4426,12 +4426,12 @@
         <v>430</v>
       </c>
       <c r="D184">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4440,12 +4440,12 @@
         <v>431</v>
       </c>
       <c r="D185">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4454,7 +4454,7 @@
         <v>432</v>
       </c>
       <c r="D186">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4468,12 +4468,12 @@
         <v>433</v>
       </c>
       <c r="D187">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4482,12 +4482,12 @@
         <v>434</v>
       </c>
       <c r="D188">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4496,12 +4496,12 @@
         <v>435</v>
       </c>
       <c r="D189">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4510,12 +4510,12 @@
         <v>436</v>
       </c>
       <c r="D190">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4524,12 +4524,12 @@
         <v>437</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4538,12 +4538,12 @@
         <v>438</v>
       </c>
       <c r="D192">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="1">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4552,12 +4552,12 @@
         <v>439</v>
       </c>
       <c r="D193">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="1">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="1">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4594,12 +4594,12 @@
         <v>442</v>
       </c>
       <c r="D196">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="1">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4608,12 +4608,12 @@
         <v>443</v>
       </c>
       <c r="D197">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4622,12 +4622,12 @@
         <v>444</v>
       </c>
       <c r="D198">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4636,12 +4636,12 @@
         <v>445</v>
       </c>
       <c r="D199">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4664,12 +4664,12 @@
         <v>447</v>
       </c>
       <c r="D201">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4678,12 +4678,12 @@
         <v>448</v>
       </c>
       <c r="D202">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4692,12 +4692,12 @@
         <v>449</v>
       </c>
       <c r="D203">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4706,12 +4706,12 @@
         <v>450</v>
       </c>
       <c r="D204">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4720,12 +4720,12 @@
         <v>451</v>
       </c>
       <c r="D205">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4734,12 +4734,12 @@
         <v>452</v>
       </c>
       <c r="D206">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4748,12 +4748,12 @@
         <v>453</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4762,12 +4762,12 @@
         <v>454</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="1">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4790,12 +4790,12 @@
         <v>456</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4804,12 +4804,12 @@
         <v>457</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>4</v>
+        <v>172</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4888,12 +4888,12 @@
         <v>463</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4930,12 +4930,12 @@
         <v>466</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4944,12 +4944,12 @@
         <v>467</v>
       </c>
       <c r="D221">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4958,12 +4958,12 @@
         <v>468</v>
       </c>
       <c r="D222">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4972,12 +4972,12 @@
         <v>469</v>
       </c>
       <c r="D223">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4986,12 +4986,12 @@
         <v>470</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="1">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5000,12 +5000,12 @@
         <v>471</v>
       </c>
       <c r="D225">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="1">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="1">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="1">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -5042,12 +5042,12 @@
         <v>474</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="1">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="1">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
@@ -5098,12 +5098,12 @@
         <v>478</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="1">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="1">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
@@ -5154,12 +5154,12 @@
         <v>482</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="1">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -5168,12 +5168,12 @@
         <v>483</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="1">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
@@ -5182,12 +5182,12 @@
         <v>484</v>
       </c>
       <c r="D238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="1">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="1">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
@@ -5210,12 +5210,12 @@
         <v>486</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="1">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
